--- a/results/mod4.galtan.nonlinear.slopes.MN.xlsx
+++ b/results/mod4.galtan.nonlinear.slopes.MN.xlsx
@@ -428,25 +428,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.263000288759798</v>
+        <v>0.263018110275681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0991229755040303</v>
+        <v>0.0991205735308073</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0687228267314531</v>
+        <v>0.0687453560283442</v>
       </c>
       <c r="G2" t="n">
-        <v>0.457277750788144</v>
+        <v>0.457290864523017</v>
       </c>
       <c r="H2" t="n">
-        <v>2.653272739468</v>
+        <v>2.65351683214316</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00797154302218827</v>
+        <v>0.00796577975411838</v>
       </c>
     </row>
     <row r="3">
@@ -457,25 +457,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.534967478120815</v>
+        <v>-0.535016170394585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197597858514359</v>
+        <v>0.197590712410642</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9222521642312</v>
+        <v>-0.922286850399056</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.147682792010429</v>
+        <v>-0.147745490390115</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.70735463502981</v>
+        <v>-2.70769897971059</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00678217652206392</v>
+        <v>0.00677514431147563</v>
       </c>
     </row>
     <row r="4">
@@ -486,25 +486,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0386301973358689</v>
+        <v>-0.0386131148974087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0983720199194053</v>
+        <v>0.0983702109629865</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.23143581346436</v>
+        <v>-0.231415185536469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.154175418792622</v>
+        <v>0.154188955741652</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.392694969235338</v>
+        <v>-0.392528536021312</v>
       </c>
       <c r="I4" t="n">
-        <v>0.694544786762549</v>
+        <v>0.694667730983488</v>
       </c>
     </row>
     <row r="5">
@@ -515,25 +515,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.310597386696885</v>
+        <v>0.310611175016313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0801632452168937</v>
+        <v>0.0801615773221561</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>0.153480313187921</v>
+        <v>0.153497370520965</v>
       </c>
       <c r="G5" t="n">
-        <v>0.46771446020585</v>
+        <v>0.467724979511662</v>
       </c>
       <c r="H5" t="n">
-        <v>3.87456103924582</v>
+        <v>3.87481366251089</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000106817067849964</v>
+        <v>0.000106706319308619</v>
       </c>
     </row>
     <row r="6">
@@ -544,25 +544,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0268942666868598</v>
+        <v>0.0268963042862626</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0602503937171616</v>
+        <v>0.0602496678369005</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0911943350531353</v>
+        <v>-0.0911908747545637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.144982868426855</v>
+        <v>0.144983483327089</v>
       </c>
       <c r="H6" t="n">
-        <v>0.446374953383903</v>
+        <v>0.446414150515692</v>
       </c>
       <c r="I6" t="n">
-        <v>0.655326422046545</v>
+        <v>0.655298113091854</v>
       </c>
     </row>
     <row r="7">
@@ -573,25 +573,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.128306785801229</v>
+        <v>-0.128308918436671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.139211948235393</v>
+        <v>0.139209937156696</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.401157190560253</v>
+        <v>-0.401155381553879</v>
       </c>
       <c r="G7" t="n">
-        <v>0.144543618957795</v>
+        <v>0.144537544680537</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.921665039729747</v>
+        <v>-0.921693674010109</v>
       </c>
       <c r="I7" t="n">
-        <v>0.356703321573993</v>
+        <v>0.356688381205519</v>
       </c>
     </row>
     <row r="8">
@@ -602,25 +602,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.039612812325602</v>
+        <v>0.039612634183443</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0605403699410022</v>
+        <v>0.0605398352276086</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0790441323694936</v>
+        <v>-0.079043262492659</v>
       </c>
       <c r="G8" t="n">
-        <v>0.158269757020698</v>
+        <v>0.158268530859545</v>
       </c>
       <c r="H8" t="n">
-        <v>0.654320618856566</v>
+        <v>0.654323455531607</v>
       </c>
       <c r="I8" t="n">
-        <v>0.51290526463408</v>
+        <v>0.512903437456282</v>
       </c>
     </row>
     <row r="9">
@@ -631,25 +631,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0617997067887668</v>
+        <v>0.0617999799669658</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0516881398128607</v>
+        <v>0.0516875949721102</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.039507185672311</v>
+        <v>-0.0395058446258637</v>
       </c>
       <c r="G9" t="n">
-        <v>0.163106599249845</v>
+        <v>0.163105804559795</v>
       </c>
       <c r="H9" t="n">
-        <v>1.1956264437551</v>
+        <v>1.1956443320745</v>
       </c>
       <c r="I9" t="n">
-        <v>0.231842367349505</v>
+        <v>0.231835383609369</v>
       </c>
     </row>
     <row r="10">
@@ -660,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0498819169372043</v>
+        <v>0.0498656285535592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0838528167951938</v>
+        <v>0.0838510090885044</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.114466583983611</v>
+        <v>-0.11447932932725</v>
       </c>
       <c r="G10" t="n">
-        <v>0.214230417858019</v>
+        <v>0.214210586434368</v>
       </c>
       <c r="H10" t="n">
-        <v>0.594874672594938</v>
+        <v>0.594693243356513</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551927248359684</v>
+        <v>0.552048539087737</v>
       </c>
     </row>
     <row r="11">
@@ -689,25 +689,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.351419363331386</v>
+        <v>0.351458591141535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.188052836123927</v>
+        <v>0.188046740668802</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0171574226621235</v>
+        <v>-0.0171062479794612</v>
       </c>
       <c r="G11" t="n">
-        <v>0.719996149324896</v>
+        <v>0.72002343026253</v>
       </c>
       <c r="H11" t="n">
-        <v>1.86872673964779</v>
+        <v>1.86899592033101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0616608418396911</v>
+        <v>0.0616233819722448</v>
       </c>
     </row>
     <row r="12">
@@ -718,25 +718,25 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.191863474237264</v>
+        <v>-0.191875380123713</v>
       </c>
       <c r="D12" t="n">
-        <v>0.091600951401736</v>
+        <v>0.0915995410661375</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.371398039934271</v>
+        <v>-0.37140718161374</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.012328908540258</v>
+        <v>-0.0123435786336855</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.09455765798551</v>
+        <v>-2.09471988495197</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0362103325221201</v>
+        <v>0.0361959005036684</v>
       </c>
     </row>
     <row r="13">
@@ -747,25 +747,25 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.209437806031326</v>
+        <v>-0.209448839571381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0726763232977853</v>
+        <v>0.0726746518943254</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.351880782223775</v>
+        <v>-0.351888539873245</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0669948298388777</v>
+        <v>-0.0670091392695177</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.88178868340892</v>
+        <v>-2.88200678107046</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00395424826005681</v>
+        <v>0.00395151229468423</v>
       </c>
     </row>
   </sheetData>
